--- a/BayesianFitForecast/fluCumberland1918.xlsx
+++ b/BayesianFitForecast/fluCumberland1918.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamedkp\Desktop\toolbox\toolboxv18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E34CAF-C739-9E48-B678-15A97E5BDD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2967B98-6E2E-4AEC-8DFE-7E5E6768B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{806DD1A2-F691-AD49-B9A8-FAC6E37877B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{806DD1A2-F691-AD49-B9A8-FAC6E37877B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,14 +41,14 @@
     <t>days</t>
   </si>
   <si>
-    <t>cases</t>
+    <t>cases1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,12 +426,12 @@
   <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A92"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -503,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -559,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -567,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -575,7 +575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -631,7 +631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -639,7 +639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -647,7 +647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -663,7 +663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -671,7 +671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -679,7 +679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -687,7 +687,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -695,7 +695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -703,7 +703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -711,7 +711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -719,7 +719,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -727,7 +727,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -735,7 +735,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -743,7 +743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -751,7 +751,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -759,7 +759,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -767,7 +767,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -775,7 +775,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -783,7 +783,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -791,7 +791,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -799,7 +799,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -807,7 +807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -815,7 +815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -823,7 +823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -831,7 +831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -839,7 +839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -847,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -855,7 +855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -863,7 +863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -879,7 +879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -935,7 +935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -951,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -959,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>90</v>
       </c>
